--- a/Batch/data/DM_VS_analysis_substrates.xlsx
+++ b/Batch/data/DM_VS_analysis_substrates.xlsx
@@ -112,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -144,8 +144,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +175,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -235,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -314,6 +327,12 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -588,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,7 +618,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1049,22 +1068,24 @@
         <f t="shared" si="8"/>
         <v>12.807921625098089</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="36">
+        <v>6.6920000000000002</v>
+      </c>
       <c r="J11" s="25">
         <f t="shared" si="9"/>
-        <v>20.167999999999999</v>
+        <v>13.475999999999999</v>
       </c>
       <c r="K11" s="26">
         <f t="shared" si="10"/>
-        <v>127.38756947953512</v>
+        <v>85.118746841839311</v>
       </c>
       <c r="L11" s="26">
         <f t="shared" si="11"/>
-        <v>16.315700059056233</v>
+        <v>10.901942383768434</v>
       </c>
       <c r="M11" s="27">
         <f t="shared" si="12"/>
-        <v>-3.5077784339581428</v>
+        <v>1.905979241329655</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="35"/>
@@ -1096,22 +1117,24 @@
         <f t="shared" si="8"/>
         <v>12.682817370955975</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="37">
+        <v>6.9320000000000004</v>
+      </c>
       <c r="J12" s="25">
         <f t="shared" si="9"/>
-        <v>20.152999999999999</v>
+        <v>13.220999999999998</v>
       </c>
       <c r="K12" s="26">
         <f t="shared" si="10"/>
-        <v>127.34108429167192</v>
+        <v>83.539744723872104</v>
       </c>
       <c r="L12" s="26">
         <f t="shared" si="11"/>
-        <v>16.150437158907859</v>
+        <v>10.59519325549153</v>
       </c>
       <c r="M12" s="27">
         <f t="shared" si="12"/>
-        <v>-3.4676197879518837</v>
+        <v>2.0876241154644464</v>
       </c>
       <c r="N12" s="22"/>
       <c r="O12" s="35"/>
@@ -1143,22 +1166,24 @@
         <f t="shared" si="8"/>
         <v>12.731042392694874</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="37">
+        <v>6.7530000000000001</v>
+      </c>
       <c r="J13" s="25">
         <f t="shared" si="9"/>
-        <v>21.64</v>
+        <v>14.887</v>
       </c>
       <c r="K13" s="26">
         <f t="shared" si="10"/>
-        <v>124.97112497112495</v>
+        <v>85.97251097251096</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="11"/>
-        <v>15.910126898701607</v>
+        <v>10.945196817974621</v>
       </c>
       <c r="M13" s="27">
         <f t="shared" si="12"/>
-        <v>-3.1790845060067348</v>
+        <v>1.78584557472025</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="35"/>

--- a/Batch/data/DM_VS_analysis_substrates.xlsx
+++ b/Batch/data/DM_VS_analysis_substrates.xlsx
@@ -112,7 +112,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -145,14 +145,23 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,12 +184,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,10 +248,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -329,14 +334,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -629,7 +630,7 @@
     <col min="12" max="12" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
@@ -638,7 +639,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="12">
+    <row r="2" spans="1:17" ht="12">
       <c r="A2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
@@ -647,7 +648,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="12">
+    <row r="3" spans="1:17" ht="12">
       <c r="A3" s="1"/>
       <c r="D3" s="5" t="s">
         <v>0</v>
@@ -681,7 +682,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="98">
+    <row r="4" spans="1:17" ht="98">
       <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
@@ -725,7 +726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12">
+    <row r="5" spans="1:17" ht="12">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -781,7 +782,7 @@
         <v>1.5764130583555442</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12">
+    <row r="6" spans="1:17" ht="12">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -833,7 +834,7 @@
       </c>
       <c r="O6" s="35"/>
     </row>
-    <row r="7" spans="1:16" ht="12">
+    <row r="7" spans="1:17" ht="12">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -889,7 +890,7 @@
         <v>21.872395902580212</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="12">
+    <row r="8" spans="1:17" ht="12">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -938,7 +939,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:16" ht="12">
+    <row r="9" spans="1:17" ht="12">
       <c r="A9" s="16">
         <v>2</v>
       </c>
@@ -988,7 +989,7 @@
       <c r="O9" s="35"/>
       <c r="P9" s="23"/>
     </row>
-    <row r="10" spans="1:16" ht="12">
+    <row r="10" spans="1:17" ht="12">
       <c r="A10" s="16">
         <v>3</v>
       </c>
@@ -1041,7 +1042,7 @@
         <v>1.5209749199914979</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12">
+    <row r="11" spans="1:17" ht="12">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -1068,7 +1069,7 @@
         <f t="shared" si="8"/>
         <v>12.807921625098089</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="20">
         <v>6.6920000000000002</v>
       </c>
       <c r="J11" s="25">
@@ -1090,7 +1091,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="35"/>
     </row>
-    <row r="12" spans="1:16" ht="12">
+    <row r="12" spans="1:17" ht="12">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -1117,7 +1118,7 @@
         <f t="shared" si="8"/>
         <v>12.682817370955975</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="20">
         <v>6.9320000000000004</v>
       </c>
       <c r="J12" s="25">
@@ -1139,7 +1140,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="35"/>
     </row>
-    <row r="13" spans="1:16" ht="12">
+    <row r="13" spans="1:17" ht="12">
       <c r="A13" s="16">
         <v>3</v>
       </c>
@@ -1166,7 +1167,7 @@
         <f t="shared" si="8"/>
         <v>12.731042392694874</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="20">
         <v>6.7530000000000001</v>
       </c>
       <c r="J13" s="25">
@@ -1188,7 +1189,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="35"/>
     </row>
-    <row r="14" spans="1:16" ht="12">
+    <row r="14" spans="1:17" ht="12">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -1236,8 +1237,12 @@
       </c>
       <c r="N14" s="22"/>
       <c r="O14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" ht="12">
+      <c r="Q14" s="23">
+        <f>AVERAGE(K11:K13)</f>
+        <v>84.877000846074125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12">
       <c r="A15" s="16">
         <v>2</v>
       </c>
@@ -1286,8 +1291,12 @@
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="35"/>
-    </row>
-    <row r="16" spans="1:16" ht="12">
+      <c r="Q15" s="23">
+        <f>AVERAGE(L14:L16)</f>
+        <v>10.697600272020916</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="12">
       <c r="A16" s="16">
         <v>3</v>
       </c>
@@ -1409,6 +1418,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Batch/data/DM_VS_analysis_substrates.xlsx
+++ b/Batch/data/DM_VS_analysis_substrates.xlsx
@@ -608,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -619,7 +619,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -833,6 +833,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="35"/>
+      <c r="Q6" s="23">
+        <f>AVERAGE(H5:H7)</f>
+        <v>23.448808960935754</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="12">
       <c r="A7" s="16">
